--- a/Tugas5mysql.xlsx
+++ b/Tugas5mysql.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vieri arief m\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Pemrograman Studi Independen\MYSQL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57299E9C-B154-4A40-9288-38649E3D8D76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E22278EE-A5A7-499F-AC10-F8200911B7A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{15458524-6D80-406A-89B4-B470714552FA}"/>
+    <workbookView xWindow="14400" yWindow="0" windowWidth="11290" windowHeight="13770" xr2:uid="{15458524-6D80-406A-89B4-B470714552FA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -177,9 +177,6 @@
     <t>Platinum</t>
   </si>
   <si>
-    <t>Minimal_Transaksi</t>
-  </si>
-  <si>
     <t>Vieri</t>
   </si>
   <si>
@@ -223,6 +220,9 @@
   </si>
   <si>
     <t>Harga_Setelah_Diskon</t>
+  </si>
+  <si>
+    <t>Iuran</t>
   </si>
 </sst>
 </file>
@@ -574,7 +574,7 @@
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{F81E37EF-87B6-4844-B639-81374F0255AB}" name="ID"/>
     <tableColumn id="2" xr3:uid="{226A2FC6-EBD2-4703-A329-5B1B6F17E2F3}" name="Nama"/>
-    <tableColumn id="3" xr3:uid="{43894E47-CC08-400C-8C7F-FEC7B4708A50}" name="Minimal_Transaksi"/>
+    <tableColumn id="3" xr3:uid="{43894E47-CC08-400C-8C7F-FEC7B4708A50}" name="Iuran"/>
     <tableColumn id="4" xr3:uid="{679C8716-D298-42F1-9DE8-D0B0B2FF42A4}" name="Diskon"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -896,8 +896,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DBC796E-C74F-4652-933F-4A4A217EF9F1}">
   <dimension ref="A1:H28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="T19" sqref="T19"/>
+    <sheetView tabSelected="1" topLeftCell="I1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -944,7 +944,7 @@
         <v>9</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.35">
@@ -1045,7 +1045,7 @@
         <v>14</v>
       </c>
       <c r="C9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D9" t="s">
         <v>15</v>
@@ -1054,7 +1054,7 @@
         <v>17</v>
       </c>
       <c r="F9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.35">
@@ -1062,7 +1062,7 @@
         <v>18</v>
       </c>
       <c r="B10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C10" t="s">
         <v>29</v>
@@ -1139,7 +1139,7 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A15" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
@@ -1151,7 +1151,7 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B16" t="s">
         <v>16</v>
@@ -1160,21 +1160,21 @@
         <v>37</v>
       </c>
       <c r="D16" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E16" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F16" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G16" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B17" t="s">
         <v>18</v>
@@ -1197,7 +1197,7 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B18" t="s">
         <v>18</v>
@@ -1220,7 +1220,7 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B19" t="s">
         <v>19</v>
@@ -1243,7 +1243,7 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B20" t="s">
         <v>20</v>
@@ -1266,7 +1266,7 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B21" t="s">
         <v>21</v>
@@ -1303,7 +1303,7 @@
         <v>14</v>
       </c>
       <c r="C24" t="s">
-        <v>47</v>
+        <v>62</v>
       </c>
       <c r="D24" t="s">
         <v>38</v>
@@ -1331,7 +1331,7 @@
         <v>45</v>
       </c>
       <c r="C26">
-        <v>500000</v>
+        <v>50000</v>
       </c>
       <c r="D26" s="3">
         <v>0.02</v>
@@ -1345,7 +1345,7 @@
         <v>44</v>
       </c>
       <c r="C27">
-        <v>1000000</v>
+        <v>100000</v>
       </c>
       <c r="D27" s="3">
         <v>0.05</v>
@@ -1359,7 +1359,7 @@
         <v>46</v>
       </c>
       <c r="C28">
-        <v>5000000</v>
+        <v>250000</v>
       </c>
       <c r="D28" s="3">
         <v>0.1</v>
